--- a/bioinfo-m2/Results/Total_Bacteria.xlsx
+++ b/bioinfo-m2/Results/Total_Bacteria.xlsx
@@ -35,7 +35,7 @@
     <t>Modification date</t>
   </si>
   <si>
-    <t>14-Dec-2017</t>
+    <t>19-Dec-2017</t>
   </si>
   <si>
     <t>BioProject</t>
@@ -5533,31 +5533,31 @@
         <v>18</v>
       </c>
       <c r="B2" t="n" s="38">
-        <v>6.7011006E7</v>
+        <v>6.7055733E7</v>
       </c>
       <c r="C2" t="n" s="39">
-        <v>2.8484714730695666</v>
+        <v>2.8482208090105328</v>
       </c>
       <c r="D2" t="n" s="38">
-        <v>5.8007355E7</v>
+        <v>5.804348E7</v>
       </c>
       <c r="E2" t="n" s="39">
-        <v>2.465748625617101</v>
+        <v>2.46542152575361</v>
       </c>
       <c r="F2" t="n" s="38">
-        <v>5.1628702E7</v>
+        <v>5.1654099E7</v>
       </c>
       <c r="G2" t="n" s="39">
-        <v>2.1946079251311295</v>
+        <v>2.1940298474179705</v>
       </c>
       <c r="H2" t="n" s="38">
-        <v>4645921.0</v>
+        <v>4649718.0</v>
       </c>
       <c r="I2" t="n" s="38">
-        <v>3297977.0</v>
+        <v>3300080.0</v>
       </c>
       <c r="J2" t="n" s="38">
-        <v>2072868.0</v>
+        <v>2073516.0</v>
       </c>
       <c r="M2" t="s" s="35">
         <v>0</v>
@@ -5571,31 +5571,31 @@
         <v>19</v>
       </c>
       <c r="B3" t="n" s="40">
-        <v>4.2168821E7</v>
+        <v>4.2207478E7</v>
       </c>
       <c r="C3" t="n" s="41">
-        <v>1.792491873222689</v>
+        <v>1.7927805984233185</v>
       </c>
       <c r="D3" t="n" s="40">
-        <v>3.4074397E7</v>
+        <v>3.4100528E7</v>
       </c>
       <c r="E3" t="n" s="41">
-        <v>1.448418007879888</v>
+        <v>1.4484344455357205</v>
       </c>
       <c r="F3" t="n" s="40">
-        <v>2.6535658E7</v>
+        <v>2.6550978E7</v>
       </c>
       <c r="G3" t="n" s="41">
-        <v>1.1279649320908602</v>
+        <v>1.1277640949682983</v>
       </c>
       <c r="H3" t="n" s="42">
-        <v>3916656.0</v>
+        <v>3920049.0</v>
       </c>
       <c r="I3" t="n" s="42">
-        <v>2901518.0</v>
+        <v>2903558.0</v>
       </c>
       <c r="J3" t="n" s="42">
-        <v>1908564.0</v>
+        <v>1909369.0</v>
       </c>
     </row>
     <row r="4">
@@ -5603,37 +5603,37 @@
         <v>20</v>
       </c>
       <c r="B4" t="n" s="38">
-        <v>4.6473047E7</v>
+        <v>4.6503416E7</v>
       </c>
       <c r="C4" t="n" s="39">
-        <v>1.9754538328542806</v>
+        <v>1.9752523940238391</v>
       </c>
       <c r="D4" t="n" s="38">
-        <v>6.4000586E7</v>
+        <v>6.404329E7</v>
       </c>
       <c r="E4" t="n" s="39">
-        <v>2.720505993906963</v>
+        <v>2.720266009999416</v>
       </c>
       <c r="F4" t="n" s="38">
-        <v>1.7476114E7</v>
+        <v>1.7484984E7</v>
       </c>
       <c r="G4" t="n" s="39">
-        <v>0.7428662119937682</v>
+        <v>0.7426821398554576</v>
       </c>
       <c r="H4" t="n" s="38">
-        <v>3209584.0</v>
+        <v>3211866.0</v>
       </c>
       <c r="I4" t="n" s="38">
-        <v>4551992.0</v>
+        <v>4555663.0</v>
       </c>
       <c r="J4" t="n" s="38">
-        <v>519027.0</v>
+        <v>519333.0</v>
       </c>
       <c r="M4" t="s" s="35">
         <v>2</v>
       </c>
       <c r="N4" t="n" s="33">
-        <v>5.883163516E9</v>
+        <v>5.887608313E9</v>
       </c>
     </row>
     <row r="5">
@@ -5641,31 +5641,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="n" s="40">
-        <v>4.4946563E7</v>
+        <v>4.4971234E7</v>
       </c>
       <c r="C5" t="n" s="41">
-        <v>1.9105667883574837</v>
+        <v>1.910172311227766</v>
       </c>
       <c r="D5" t="n" s="40">
-        <v>2.9317855E7</v>
+        <v>2.9332865E7</v>
       </c>
       <c r="E5" t="n" s="41">
-        <v>1.2462292182136463</v>
+        <v>1.245925929717251</v>
       </c>
       <c r="F5" t="n" s="40">
-        <v>3.7197498E7</v>
+        <v>3.7215081E7</v>
       </c>
       <c r="G5" t="n" s="41">
-        <v>1.5811732765594098</v>
+        <v>1.5807264102714755</v>
       </c>
       <c r="H5" t="n" s="42">
-        <v>4138504.0</v>
+        <v>4141801.0</v>
       </c>
       <c r="I5" t="n" s="42">
-        <v>2549874.0</v>
+        <v>2551439.0</v>
       </c>
       <c r="J5" t="n" s="42">
-        <v>3042219.0</v>
+        <v>3044156.0</v>
       </c>
     </row>
     <row r="6">
@@ -5673,37 +5673,37 @@
         <v>22</v>
       </c>
       <c r="B6" t="n" s="38">
-        <v>2.3128133E7</v>
+        <v>2.3137343E7</v>
       </c>
       <c r="C6" t="n" s="39">
-        <v>0.983119505411676</v>
+        <v>0.982768494944559</v>
       </c>
       <c r="D6" t="n" s="38">
-        <v>3.9229067E7</v>
+        <v>3.9255286E7</v>
       </c>
       <c r="E6" t="n" s="39">
-        <v>1.6675302302525457</v>
+        <v>1.6673849862898351</v>
       </c>
       <c r="F6" t="n" s="38">
-        <v>2.3806375E7</v>
+        <v>2.3823029E7</v>
       </c>
       <c r="G6" t="n" s="39">
-        <v>1.0119498887197202</v>
+        <v>1.011893299734139</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>2032781.0</v>
+        <v>2033669.0</v>
       </c>
       <c r="I6" t="n" s="38">
-        <v>4599944.0</v>
+        <v>4603588.0</v>
       </c>
       <c r="J6" t="n" s="38">
-        <v>2116887.0</v>
+        <v>2118756.0</v>
       </c>
       <c r="M6" t="s" s="35">
         <v>3</v>
       </c>
       <c r="N6" t="n" s="33">
-        <v>4.2168821E7</v>
+        <v>4.2207478E7</v>
       </c>
     </row>
     <row r="7">
@@ -5711,31 +5711,31 @@
         <v>23</v>
       </c>
       <c r="B7" t="n" s="40">
-        <v>5.0386784E7</v>
+        <v>5.0431745E7</v>
       </c>
       <c r="C7" t="n" s="41">
-        <v>2.141817074701401</v>
+        <v>2.142109840835129</v>
       </c>
       <c r="D7" t="n" s="40">
-        <v>3.9169148E7</v>
+        <v>3.9202328E7</v>
       </c>
       <c r="E7" t="n" s="41">
-        <v>1.6649832223446976</v>
+        <v>1.6651355726922896</v>
       </c>
       <c r="F7" t="n" s="40">
-        <v>1.7183027E7</v>
+        <v>1.7191146E7</v>
       </c>
       <c r="G7" t="n" s="41">
-        <v>0.730407811374808</v>
+        <v>0.7302012457001729</v>
       </c>
       <c r="H7" t="n" s="42">
-        <v>4371052.0</v>
+        <v>4374747.0</v>
       </c>
       <c r="I7" t="n" s="42">
-        <v>2790208.0</v>
+        <v>2792289.0</v>
       </c>
       <c r="J7" t="n" s="42">
-        <v>1685154.0</v>
+        <v>1685612.0</v>
       </c>
     </row>
     <row r="8">
@@ -5743,31 +5743,31 @@
         <v>24</v>
       </c>
       <c r="B8" t="n" s="38">
-        <v>3.2733476E7</v>
+        <v>3.2758407E7</v>
       </c>
       <c r="C8" t="n" s="39">
-        <v>1.39141878575002</v>
+        <v>1.391427284635548</v>
       </c>
       <c r="D8" t="n" s="38">
-        <v>5.8355969E7</v>
+        <v>5.8406166E7</v>
       </c>
       <c r="E8" t="n" s="39">
-        <v>2.480567341129485</v>
+        <v>2.480826768021811</v>
       </c>
       <c r="F8" t="n" s="38">
-        <v>1.5612626E7</v>
+        <v>1.5623662E7</v>
       </c>
       <c r="G8" t="n" s="39">
-        <v>0.6636539642563225</v>
+        <v>0.6636216954238219</v>
       </c>
       <c r="H8" t="n" s="38">
-        <v>2278882.0</v>
+        <v>2280264.0</v>
       </c>
       <c r="I8" t="n" s="38">
-        <v>5264485.0</v>
+        <v>5268707.0</v>
       </c>
       <c r="J8" t="n" s="38">
-        <v>1251758.0</v>
+        <v>1252369.0</v>
       </c>
       <c r="M8" t="s" s="35">
         <v>4</v>
@@ -5781,31 +5781,31 @@
         <v>25</v>
       </c>
       <c r="B9" t="n" s="40">
-        <v>2.1086829E7</v>
+        <v>2.1097221E7</v>
       </c>
       <c r="C9" t="n" s="41">
-        <v>0.8963487410410769</v>
+        <v>0.8961134443865374</v>
       </c>
       <c r="D9" t="n" s="40">
-        <v>2.4138207E7</v>
+        <v>2.4158829E7</v>
       </c>
       <c r="E9" t="n" s="41">
-        <v>1.0260552430827277</v>
+        <v>1.0261565477052816</v>
       </c>
       <c r="F9" t="n" s="40">
-        <v>2.5140006E7</v>
+        <v>2.5155692E7</v>
       </c>
       <c r="G9" t="n" s="41">
-        <v>1.0686392310510566</v>
+        <v>1.0684987280574474</v>
       </c>
       <c r="H9" t="n" s="42">
-        <v>2449682.0</v>
+        <v>2450901.0</v>
       </c>
       <c r="I9" t="n" s="42">
-        <v>3284045.0</v>
+        <v>3287286.0</v>
       </c>
       <c r="J9" t="n" s="42">
-        <v>3425322.0</v>
+        <v>3427575.0</v>
       </c>
     </row>
     <row r="10">
@@ -5813,31 +5813,31 @@
         <v>26</v>
       </c>
       <c r="B10" t="n" s="38">
-        <v>1.2678486E7</v>
+        <v>1.2684364E7</v>
       </c>
       <c r="C10" t="n" s="39">
-        <v>0.5389309584863101</v>
+        <v>0.5387737614301238</v>
       </c>
       <c r="D10" t="n" s="38">
-        <v>3.64301E7</v>
+        <v>3.6458184E7</v>
       </c>
       <c r="E10" t="n" s="39">
-        <v>1.5485530930705862</v>
+        <v>1.5485768879379018</v>
       </c>
       <c r="F10" t="n" s="38">
-        <v>5.2354272E7</v>
+        <v>5.2386654E7</v>
       </c>
       <c r="G10" t="n" s="39">
-        <v>2.225450104201163</v>
+        <v>2.225145432937626</v>
       </c>
       <c r="H10" t="n" s="38">
-        <v>518096.0</v>
+        <v>518400.0</v>
       </c>
       <c r="I10" t="n" s="38">
-        <v>3585164.0</v>
+        <v>3588449.0</v>
       </c>
       <c r="J10" t="n" s="38">
-        <v>4283073.0</v>
+        <v>4285741.0</v>
       </c>
       <c r="M10" t="s" s="35">
         <v>5</v>
@@ -5851,31 +5851,31 @@
         <v>27</v>
       </c>
       <c r="B11" t="n" s="40">
-        <v>3.2812164E7</v>
+        <v>3.284948E7</v>
       </c>
       <c r="C11" t="n" s="41">
-        <v>1.3947636172434152</v>
+        <v>1.395295649086042</v>
       </c>
       <c r="D11" t="n" s="40">
-        <v>4.6458061E7</v>
+        <v>4.6507148E7</v>
       </c>
       <c r="E11" t="n" s="41">
-        <v>1.9748168152053376</v>
+        <v>1.975410912312786</v>
       </c>
       <c r="F11" t="n" s="40">
-        <v>3.5553644E7</v>
+        <v>3.5572848E7</v>
       </c>
       <c r="G11" t="n" s="41">
-        <v>1.5112971247987377</v>
+        <v>1.5109718643947823</v>
       </c>
       <c r="H11" t="n" s="42">
-        <v>1892477.0</v>
+        <v>1894269.0</v>
       </c>
       <c r="I11" t="n" s="42">
-        <v>3703512.0</v>
+        <v>3706659.0</v>
       </c>
       <c r="J11" t="n" s="42">
-        <v>2929093.0</v>
+        <v>2930230.0</v>
       </c>
     </row>
     <row r="12">
@@ -5883,31 +5883,31 @@
         <v>28</v>
       </c>
       <c r="B12" t="n" s="38">
-        <v>7553982.0</v>
+        <v>7557328.0</v>
       </c>
       <c r="C12" t="n" s="39">
-        <v>0.3211010178698256</v>
+        <v>0.32100072442900524</v>
       </c>
       <c r="D12" t="n" s="38">
-        <v>5.5367336E7</v>
+        <v>5.5412619E7</v>
       </c>
       <c r="E12" t="n" s="39">
-        <v>2.3535279732385694</v>
+        <v>2.3536745846559075</v>
       </c>
       <c r="F12" t="n" s="38">
-        <v>2.9677695E7</v>
+        <v>2.9696309E7</v>
       </c>
       <c r="G12" t="n" s="39">
-        <v>1.2615251231112588</v>
+        <v>1.2613633683581802</v>
       </c>
       <c r="H12" t="n" s="38">
-        <v>410962.0</v>
+        <v>411130.0</v>
       </c>
       <c r="I12" t="n" s="38">
-        <v>5059969.0</v>
+        <v>5064368.0</v>
       </c>
       <c r="J12" t="n" s="38">
-        <v>2803476.0</v>
+        <v>2804807.0</v>
       </c>
       <c r="M12" t="s" s="35">
         <v>7</v>
@@ -5921,31 +5921,31 @@
         <v>29</v>
       </c>
       <c r="B13" t="n" s="40">
-        <v>1.9000073E7</v>
+        <v>1.9009446E7</v>
       </c>
       <c r="C13" t="n" s="41">
-        <v>0.8076459250102782</v>
+        <v>0.807434312364642</v>
       </c>
       <c r="D13" t="n" s="40">
-        <v>2.1711878E7</v>
+        <v>2.1729725E7</v>
       </c>
       <c r="E13" t="n" s="41">
-        <v>0.9229180220002474</v>
+        <v>0.9229793210832011</v>
       </c>
       <c r="F13" t="n" s="40">
-        <v>2.5872403E7</v>
+        <v>2.5885568E7</v>
       </c>
       <c r="G13" t="n" s="41">
-        <v>1.0997716089392757</v>
+        <v>1.0995005219114846</v>
       </c>
       <c r="H13" t="n" s="42">
-        <v>2191411.0</v>
+        <v>2192678.0</v>
       </c>
       <c r="I13" t="n" s="42">
-        <v>3552613.0</v>
+        <v>3556156.0</v>
       </c>
       <c r="J13" t="n" s="42">
-        <v>3530900.0</v>
+        <v>3532909.0</v>
       </c>
     </row>
     <row r="14">
@@ -5953,31 +5953,31 @@
         <v>30</v>
       </c>
       <c r="B14" t="n" s="38">
-        <v>2.088896E7</v>
+        <v>2.0897399E7</v>
       </c>
       <c r="C14" t="n" s="39">
-        <v>0.8879378211706186</v>
+        <v>0.8876259198597666</v>
       </c>
       <c r="D14" t="n" s="38">
-        <v>4.3635172E7</v>
+        <v>4.3668628E7</v>
       </c>
       <c r="E14" t="n" s="39">
-        <v>1.8548228132030116</v>
+        <v>1.8548435667766099</v>
       </c>
       <c r="F14" t="n" s="38">
-        <v>1.3410222E7</v>
+        <v>1.3416866E7</v>
       </c>
       <c r="G14" t="n" s="39">
-        <v>0.5700352389058285</v>
+        <v>0.5698870957522142</v>
       </c>
       <c r="H14" t="n" s="38">
-        <v>2295898.0</v>
+        <v>2296539.0</v>
       </c>
       <c r="I14" t="n" s="38">
-        <v>5948041.0</v>
+        <v>5953037.0</v>
       </c>
       <c r="J14" t="n" s="38">
-        <v>1978457.0</v>
+        <v>1978977.0</v>
       </c>
     </row>
     <row r="15">
@@ -5985,31 +5985,31 @@
         <v>31</v>
       </c>
       <c r="B15" t="n" s="40">
-        <v>6.4254382E7</v>
+        <v>6.4307536E7</v>
       </c>
       <c r="C15" t="n" s="41">
-        <v>2.731294231677624</v>
+        <v>2.7314899713555283</v>
       </c>
       <c r="D15" t="n" s="40">
-        <v>3.7859047E7</v>
+        <v>3.7891071E7</v>
       </c>
       <c r="E15" t="n" s="41">
-        <v>1.609294081887085</v>
+        <v>1.6094393733328594</v>
       </c>
       <c r="F15" t="n" s="40">
-        <v>1.6978921E7</v>
+        <v>1.6988546E7</v>
       </c>
       <c r="G15" t="n" s="41">
-        <v>0.7217317721211617</v>
+        <v>0.7215957244406329</v>
       </c>
       <c r="H15" t="n" s="42">
-        <v>5012319.0</v>
+        <v>5016355.0</v>
       </c>
       <c r="I15" t="n" s="42">
-        <v>2467606.0</v>
+        <v>2469255.0</v>
       </c>
       <c r="J15" t="n" s="42">
-        <v>834369.0</v>
+        <v>834680.0</v>
       </c>
     </row>
     <row r="16">
@@ -6017,31 +6017,31 @@
         <v>32</v>
       </c>
       <c r="B16" t="n" s="38">
-        <v>5.4761993E7</v>
+        <v>5.4805607E7</v>
       </c>
       <c r="C16" t="n" s="39">
-        <v>2.3277963454083244</v>
+        <v>2.327891491512789</v>
       </c>
       <c r="D16" t="n" s="38">
-        <v>5.8869099E7</v>
+        <v>5.8902759E7</v>
       </c>
       <c r="E16" t="n" s="39">
-        <v>2.5023792232996493</v>
+        <v>2.501919767127629</v>
       </c>
       <c r="F16" t="n" s="38">
-        <v>9063007.0</v>
+        <v>9068366.0</v>
       </c>
       <c r="G16" t="n" s="39">
-        <v>0.3852459236282737</v>
+        <v>0.38518270682275013</v>
       </c>
       <c r="H16" t="n" s="38">
-        <v>4104125.0</v>
+        <v>4107912.0</v>
       </c>
       <c r="I16" t="n" s="38">
-        <v>3890351.0</v>
+        <v>3892423.0</v>
       </c>
       <c r="J16" t="n" s="38">
-        <v>198852.0</v>
+        <v>198952.0</v>
       </c>
     </row>
     <row r="17">
@@ -6049,31 +6049,31 @@
         <v>33</v>
       </c>
       <c r="B17" t="n" s="40">
-        <v>5.663113E7</v>
+        <v>5.6670101E7</v>
       </c>
       <c r="C17" t="n" s="41">
-        <v>2.407248718108994</v>
+        <v>2.407086667994944</v>
       </c>
       <c r="D17" t="n" s="40">
-        <v>3.2594432E7</v>
+        <v>3.2611652E7</v>
       </c>
       <c r="E17" t="n" s="41">
-        <v>1.3855083705638715</v>
+        <v>1.3851938035277307</v>
       </c>
       <c r="F17" t="n" s="40">
-        <v>3.4565299E7</v>
+        <v>3.4580588E7</v>
       </c>
       <c r="G17" t="n" s="41">
-        <v>1.4692850329633913</v>
+        <v>1.4688251984274026</v>
       </c>
       <c r="H17" t="n" s="42">
-        <v>4996160.0</v>
+        <v>5000666.0</v>
       </c>
       <c r="I17" t="n" s="42">
-        <v>2347876.0</v>
+        <v>2348816.0</v>
       </c>
       <c r="J17" t="n" s="42">
-        <v>2137845.0</v>
+        <v>2138565.0</v>
       </c>
     </row>
     <row r="18">
@@ -6081,31 +6081,31 @@
         <v>34</v>
       </c>
       <c r="B18" t="n" s="38">
-        <v>3.7399769E7</v>
+        <v>3.7419765E7</v>
       </c>
       <c r="C18" t="n" s="39">
-        <v>1.5897713145194614</v>
+        <v>1.589420450318305</v>
       </c>
       <c r="D18" t="n" s="38">
-        <v>2.7913783E7</v>
+        <v>2.7925003E7</v>
       </c>
       <c r="E18" t="n" s="39">
-        <v>1.1865456038811628</v>
+        <v>1.186126391852007</v>
       </c>
       <c r="F18" t="n" s="38">
-        <v>5.9876202E7</v>
+        <v>5.9924557E7</v>
       </c>
       <c r="G18" t="n" s="39">
-        <v>2.5451886711378564</v>
+        <v>2.5453210722211894</v>
       </c>
       <c r="H18" t="n" s="38">
-        <v>2215558.0</v>
+        <v>2216861.0</v>
       </c>
       <c r="I18" t="n" s="38">
-        <v>1468736.0</v>
+        <v>1469199.0</v>
       </c>
       <c r="J18" t="n" s="38">
-        <v>4640894.0</v>
+        <v>4645090.0</v>
       </c>
     </row>
     <row r="19">
@@ -6113,31 +6113,31 @@
         <v>35</v>
       </c>
       <c r="B19" t="n" s="40">
-        <v>2.4958731E7</v>
+        <v>2.4980176E7</v>
       </c>
       <c r="C19" t="n" s="41">
-        <v>1.0609336809167893</v>
+        <v>1.0610436112292665</v>
       </c>
       <c r="D19" t="n" s="40">
-        <v>1.9974884E7</v>
+        <v>1.9983878E7</v>
       </c>
       <c r="E19" t="n" s="41">
-        <v>0.8490827201112862</v>
+        <v>0.8488237264415228</v>
       </c>
       <c r="F19" t="n" s="40">
-        <v>4.177693E7</v>
+        <v>4.1806554E7</v>
       </c>
       <c r="G19" t="n" s="41">
-        <v>1.7758335598994615</v>
+        <v>1.7757511808248003</v>
       </c>
       <c r="H19" t="n" s="42">
-        <v>2123699.0</v>
+        <v>2125859.0</v>
       </c>
       <c r="I19" t="n" s="42">
-        <v>2429288.0</v>
+        <v>2430216.0</v>
       </c>
       <c r="J19" t="n" s="42">
-        <v>4519270.0</v>
+        <v>4522736.0</v>
       </c>
     </row>
     <row r="20">
@@ -6145,31 +6145,31 @@
         <v>36</v>
       </c>
       <c r="B20" t="n" s="38">
-        <v>5.1380593E7</v>
+        <v>5.1446383E7</v>
       </c>
       <c r="C20" t="n" s="39">
-        <v>2.184061427609337</v>
+        <v>2.185207021880228</v>
       </c>
       <c r="D20" t="n" s="38">
-        <v>3.3722888E7</v>
+        <v>3.3738538E7</v>
       </c>
       <c r="E20" t="n" s="39">
-        <v>1.433476233105947</v>
+        <v>1.4330587661638508</v>
       </c>
       <c r="F20" t="n" s="38">
-        <v>2.6306487E7</v>
+        <v>2.6335585E7</v>
       </c>
       <c r="G20" t="n" s="39">
-        <v>1.1182234419249788</v>
+        <v>1.1186151855869753</v>
       </c>
       <c r="H20" t="n" s="38">
-        <v>4311701.0</v>
+        <v>4315730.0</v>
       </c>
       <c r="I20" t="n" s="38">
-        <v>2837207.0</v>
+        <v>2838328.0</v>
       </c>
       <c r="J20" t="n" s="38">
-        <v>1272171.0</v>
+        <v>1272921.0</v>
       </c>
     </row>
     <row r="21">
@@ -6177,31 +6177,31 @@
         <v>37</v>
       </c>
       <c r="B21" t="n" s="40">
-        <v>2.4812079E7</v>
+        <v>2.4831042E7</v>
       </c>
       <c r="C21" t="n" s="41">
-        <v>1.0546998685417208</v>
+        <v>1.0547090810835595</v>
       </c>
       <c r="D21" t="n" s="40">
-        <v>1.6570969E7</v>
+        <v>1.6578655E7</v>
       </c>
       <c r="E21" t="n" s="41">
-        <v>0.7043907455682745</v>
+        <v>0.7041854296992998</v>
       </c>
       <c r="F21" t="n" s="40">
-        <v>5.2907418E7</v>
+        <v>5.2944864E7</v>
       </c>
       <c r="G21" t="n" s="41">
-        <v>2.2489629671694122</v>
+        <v>2.24885564035267</v>
       </c>
       <c r="H21" t="n" s="42">
-        <v>2002515.0</v>
+        <v>2004064.0</v>
       </c>
       <c r="I21" t="n" s="42">
-        <v>1193224.0</v>
+        <v>1193698.0</v>
       </c>
       <c r="J21" t="n" s="42">
-        <v>5302577.0</v>
+        <v>5306720.0</v>
       </c>
     </row>
     <row r="22">
@@ -6209,31 +6209,31 @@
         <v>38</v>
       </c>
       <c r="B22" t="n" s="38">
-        <v>1.7865382E7</v>
+        <v>1.7872552E7</v>
       </c>
       <c r="C22" t="n" s="39">
-        <v>0.7594130281000485</v>
+        <v>0.7591442556674881</v>
       </c>
       <c r="D22" t="n" s="38">
-        <v>4.4617377E7</v>
+        <v>4.465588E7</v>
       </c>
       <c r="E22" t="n" s="39">
-        <v>1.8965739088843137</v>
+        <v>1.8967775158117692</v>
       </c>
       <c r="F22" t="n" s="38">
-        <v>3.5723345E7</v>
+        <v>3.5754083E7</v>
       </c>
       <c r="G22" t="n" s="39">
-        <v>1.5185106929318795</v>
+        <v>1.5186698981829</v>
       </c>
       <c r="H22" t="n" s="38">
-        <v>1871529.0</v>
+        <v>1872112.0</v>
       </c>
       <c r="I22" t="n" s="38">
-        <v>4124182.0</v>
+        <v>4127629.0</v>
       </c>
       <c r="J22" t="n" s="38">
-        <v>2802028.0</v>
+        <v>2804338.0</v>
       </c>
     </row>
     <row r="23">
@@ -6241,31 +6241,31 @@
         <v>39</v>
       </c>
       <c r="B23" t="n" s="40">
-        <v>2.5553018E7</v>
+        <v>2.556488E7</v>
       </c>
       <c r="C23" t="n" s="41">
-        <v>1.0861953456396871</v>
+        <v>1.0858791625744693</v>
       </c>
       <c r="D23" t="n" s="40">
-        <v>3.2742859E7</v>
+        <v>3.2763049E7</v>
       </c>
       <c r="E23" t="n" s="41">
-        <v>1.391817633781518</v>
+        <v>1.3916244555619388</v>
       </c>
       <c r="F23" t="n" s="40">
-        <v>2.5482107E7</v>
+        <v>2.5500808E7</v>
       </c>
       <c r="G23" t="n" s="41">
-        <v>1.0831810951055758</v>
+        <v>1.083157677094996</v>
       </c>
       <c r="H23" t="n" s="42">
-        <v>2897141.0</v>
+        <v>2898578.0</v>
       </c>
       <c r="I23" t="n" s="42">
-        <v>4149215.0</v>
+        <v>4152269.0</v>
       </c>
       <c r="J23" t="n" s="42">
-        <v>3160806.0</v>
+        <v>3163422.0</v>
       </c>
     </row>
     <row r="24">
@@ -6273,31 +6273,31 @@
         <v>40</v>
       </c>
       <c r="B24" t="n" s="38">
-        <v>4.4411225E7</v>
+        <v>4.4460275E7</v>
       </c>
       <c r="C24" t="n" s="39">
-        <v>1.8878108992509972</v>
+        <v>1.8884691101554398</v>
       </c>
       <c r="D24" t="n" s="38">
-        <v>7.8183383E7</v>
+        <v>7.8242275E7</v>
       </c>
       <c r="E24" t="n" s="39">
-        <v>3.3233814777168416</v>
+        <v>3.3233739432737925</v>
       </c>
       <c r="F24" t="n" s="38">
-        <v>3.7345604E7</v>
+        <v>3.7376114E7</v>
       </c>
       <c r="G24" t="n" s="39">
-        <v>1.5874688948641167</v>
+        <v>1.587566355508334</v>
       </c>
       <c r="H24" t="n" s="38">
-        <v>2197480.0</v>
+        <v>2199474.0</v>
       </c>
       <c r="I24" t="n" s="38">
-        <v>5345537.0</v>
+        <v>5349011.0</v>
       </c>
       <c r="J24" t="n" s="38">
-        <v>1611849.0</v>
+        <v>1612726.0</v>
       </c>
     </row>
     <row r="25">
@@ -6305,31 +6305,31 @@
         <v>41</v>
       </c>
       <c r="B25" t="n" s="40">
-        <v>1.8883714E7</v>
+        <v>1.8896736E7</v>
       </c>
       <c r="C25" t="n" s="41">
-        <v>0.8026997928460348</v>
+        <v>0.8026469071269188</v>
       </c>
       <c r="D25" t="n" s="40">
-        <v>2.8138255E7</v>
+        <v>2.816361E7</v>
       </c>
       <c r="E25" t="n" s="41">
-        <v>1.1960873512249182</v>
+        <v>1.1962613257669876</v>
       </c>
       <c r="F25" t="n" s="40">
-        <v>4.5711573E7</v>
+        <v>4.5747073E7</v>
       </c>
       <c r="G25" t="n" s="41">
-        <v>1.9430854638958415</v>
+        <v>1.9431264030761384</v>
       </c>
       <c r="H25" t="n" s="42">
-        <v>2486193.0</v>
+        <v>2487229.0</v>
       </c>
       <c r="I25" t="n" s="42">
-        <v>2025378.0</v>
+        <v>2027088.0</v>
       </c>
       <c r="J25" t="n" s="42">
-        <v>4351686.0</v>
+        <v>4355233.0</v>
       </c>
     </row>
     <row r="26">
@@ -6337,31 +6337,31 @@
         <v>42</v>
       </c>
       <c r="B26" t="n" s="38">
-        <v>9932812.0</v>
+        <v>9937315.0</v>
       </c>
       <c r="C26" t="n" s="39">
-        <v>0.42221917440491885</v>
+        <v>0.4220916855638951</v>
       </c>
       <c r="D26" t="n" s="38">
-        <v>3.5895504E7</v>
+        <v>3.5920835E7</v>
       </c>
       <c r="E26" t="n" s="39">
-        <v>1.525828744541673</v>
+        <v>1.5257527603796959</v>
       </c>
       <c r="F26" t="n" s="38">
-        <v>9.2009668E7</v>
+        <v>9.2073846E7</v>
       </c>
       <c r="G26" t="n" s="39">
-        <v>3.9111025216455</v>
+        <v>3.910875810466962</v>
       </c>
       <c r="H26" t="n" s="38">
-        <v>679358.0</v>
+        <v>679658.0</v>
       </c>
       <c r="I26" t="n" s="38">
-        <v>1694490.0</v>
+        <v>1695479.0</v>
       </c>
       <c r="J26" t="n" s="38">
-        <v>6055181.0</v>
+        <v>6059777.0</v>
       </c>
     </row>
     <row r="27">
@@ -6369,31 +6369,31 @@
         <v>43</v>
       </c>
       <c r="B27" t="n" s="40">
-        <v>5.3556961E7</v>
+        <v>5.3607915E7</v>
       </c>
       <c r="C27" t="n" s="41">
-        <v>2.276573427248642</v>
+        <v>2.277019013880109</v>
       </c>
       <c r="D27" t="n" s="40">
-        <v>5.6340766E7</v>
+        <v>5.6409771E7</v>
       </c>
       <c r="E27" t="n" s="41">
-        <v>2.394906065458676</v>
+        <v>2.3960290404061184</v>
       </c>
       <c r="F27" t="n" s="40">
-        <v>7.5517209E7</v>
+        <v>7.5578256E7</v>
       </c>
       <c r="G27" t="n" s="41">
-        <v>3.2100490412326046</v>
+        <v>3.210218602008648</v>
       </c>
       <c r="H27" t="n" s="42">
-        <v>2383908.0</v>
+        <v>2385318.0</v>
       </c>
       <c r="I27" t="n" s="42">
-        <v>2462395.0</v>
+        <v>2465018.0</v>
       </c>
       <c r="J27" t="n" s="42">
-        <v>4333841.0</v>
+        <v>4336068.0</v>
       </c>
     </row>
     <row r="28">
@@ -6401,31 +6401,31 @@
         <v>44</v>
       </c>
       <c r="B28" t="n" s="38">
-        <v>2.5559343E7</v>
+        <v>2.5575172E7</v>
       </c>
       <c r="C28" t="n" s="39">
-        <v>1.0864642056843665</v>
+        <v>1.0863163196564198</v>
       </c>
       <c r="D28" t="n" s="38">
-        <v>6.3073389E7</v>
+        <v>6.3127198E7</v>
       </c>
       <c r="E28" t="n" s="39">
-        <v>2.681093151717791</v>
+        <v>2.6813546122615364</v>
       </c>
       <c r="F28" t="n" s="38">
-        <v>7.1148912E7</v>
+        <v>7.1216277E7</v>
       </c>
       <c r="G28" t="n" s="39">
-        <v>3.0243635824828083</v>
+        <v>3.0249416868153274</v>
       </c>
       <c r="H28" t="n" s="38">
-        <v>920376.0</v>
+        <v>920801.0</v>
       </c>
       <c r="I28" t="n" s="38">
-        <v>3595892.0</v>
+        <v>3598081.0</v>
       </c>
       <c r="J28" t="n" s="38">
-        <v>4409930.0</v>
+        <v>4413522.0</v>
       </c>
     </row>
     <row r="29">
@@ -6433,31 +6433,31 @@
         <v>45</v>
       </c>
       <c r="B29" t="n" s="40">
-        <v>2.5651487E7</v>
+        <v>2.5673835E7</v>
       </c>
       <c r="C29" t="n" s="41">
-        <v>1.0903810183257783</v>
+        <v>1.0905070725884531</v>
       </c>
       <c r="D29" t="n" s="40">
-        <v>2.0178985E7</v>
+        <v>2.0194278E7</v>
       </c>
       <c r="E29" t="n" s="41">
-        <v>0.8577585468273478</v>
+        <v>0.8577605560220124</v>
       </c>
       <c r="F29" t="n" s="40">
-        <v>5.0172394E7</v>
+        <v>5.0209847E7</v>
       </c>
       <c r="G29" t="n" s="41">
-        <v>2.1327038881434888</v>
+        <v>2.1326846288092187</v>
       </c>
       <c r="H29" t="n" s="42">
-        <v>2637887.0</v>
+        <v>2639583.0</v>
       </c>
       <c r="I29" t="n" s="42">
-        <v>1263008.0</v>
+        <v>1263747.0</v>
       </c>
       <c r="J29" t="n" s="42">
-        <v>4960843.0</v>
+        <v>4964708.0</v>
       </c>
     </row>
     <row r="30">
@@ -6465,31 +6465,31 @@
         <v>46</v>
       </c>
       <c r="B30" t="n" s="38">
-        <v>1.3111512E7</v>
+        <v>1.3120255E7</v>
       </c>
       <c r="C30" t="n" s="39">
-        <v>0.5573378185190847</v>
+        <v>0.5572884172412892</v>
       </c>
       <c r="D30" t="n" s="38">
-        <v>2.182615E7</v>
+        <v>2.1840037E7</v>
       </c>
       <c r="E30" t="n" s="39">
-        <v>0.9277754409766258</v>
+        <v>0.9276648702499453</v>
       </c>
       <c r="F30" t="n" s="38">
-        <v>2.4891754E7</v>
+        <v>2.4916217E7</v>
       </c>
       <c r="G30" t="n" s="39">
-        <v>1.058086654954341</v>
+        <v>1.0583269254729046</v>
       </c>
       <c r="H30" t="n" s="38">
-        <v>1679057.0</v>
+        <v>1679884.0</v>
       </c>
       <c r="I30" t="n" s="38">
-        <v>3049352.0</v>
+        <v>3050912.0</v>
       </c>
       <c r="J30" t="n" s="38">
-        <v>4323100.0</v>
+        <v>4327104.0</v>
       </c>
     </row>
     <row r="31">
@@ -6497,31 +6497,31 @@
         <v>47</v>
       </c>
       <c r="B31" t="n" s="40">
-        <v>4.1431382E7</v>
+        <v>4.1449031E7</v>
       </c>
       <c r="C31" t="n" s="41">
-        <v>1.7611451724340315</v>
+        <v>1.7605652391798128</v>
       </c>
       <c r="D31" t="n" s="40">
-        <v>1.7434505E7</v>
+        <v>1.7447403E7</v>
       </c>
       <c r="E31" t="n" s="41">
-        <v>0.7410975167211894</v>
+        <v>0.7410858708798664</v>
       </c>
       <c r="F31" t="n" s="40">
-        <v>2.3566471E7</v>
+        <v>2.3586717E7</v>
       </c>
       <c r="G31" t="n" s="41">
-        <v>1.0017521653744643</v>
+        <v>1.001855846921284</v>
       </c>
       <c r="H31" t="n" s="42">
-        <v>4524024.0</v>
+        <v>4526448.0</v>
       </c>
       <c r="I31" t="n" s="42">
-        <v>2499275.0</v>
+        <v>2500823.0</v>
       </c>
       <c r="J31" t="n" s="42">
-        <v>2078752.0</v>
+        <v>2081657.0</v>
       </c>
     </row>
     <row r="32">
@@ -6529,31 +6529,31 @@
         <v>48</v>
       </c>
       <c r="B32" t="n" s="38">
-        <v>8.6866564E7</v>
+        <v>8.6989919E7</v>
       </c>
       <c r="C32" t="n" s="39">
-        <v>3.692481941213832</v>
+        <v>3.694933846595051</v>
       </c>
       <c r="D32" t="n" s="38">
-        <v>3.5624153E7</v>
+        <v>3.56421E7</v>
       </c>
       <c r="E32" t="n" s="39">
-        <v>1.5142942873110368</v>
+        <v>1.5139133725797065</v>
       </c>
       <c r="F32" t="n" s="38">
-        <v>2.2152963E7</v>
+        <v>2.2176303E7</v>
       </c>
       <c r="G32" t="n" s="39">
-        <v>0.9416674501120846</v>
+        <v>0.9419479117694936</v>
       </c>
       <c r="H32" t="n" s="38">
-        <v>4757313.0</v>
+        <v>4761633.0</v>
       </c>
       <c r="I32" t="n" s="38">
-        <v>2816465.0</v>
+        <v>2817605.0</v>
       </c>
       <c r="J32" t="n" s="38">
-        <v>518222.0</v>
+        <v>518454.0</v>
       </c>
     </row>
     <row r="33">
@@ -6561,31 +6561,31 @@
         <v>49</v>
       </c>
       <c r="B33" t="n" s="40">
-        <v>2.9990484E7</v>
+        <v>3.0005795E7</v>
       </c>
       <c r="C33" t="n" s="41">
-        <v>1.2748210068290762</v>
+        <v>1.274508917975801</v>
       </c>
       <c r="D33" t="n" s="40">
-        <v>2.2343859E7</v>
+        <v>2.2358293E7</v>
       </c>
       <c r="E33" t="n" s="41">
-        <v>0.9497819650668831</v>
+        <v>0.9496780145040623</v>
       </c>
       <c r="F33" t="n" s="40">
-        <v>3.9205349E7</v>
+        <v>3.9234323E7</v>
       </c>
       <c r="G33" t="n" s="41">
-        <v>1.666522036965636</v>
+        <v>1.6664945739395698</v>
       </c>
       <c r="H33" t="n" s="42">
-        <v>2744974.0</v>
+        <v>2746360.0</v>
       </c>
       <c r="I33" t="n" s="42">
-        <v>1688156.0</v>
+        <v>1689337.0</v>
       </c>
       <c r="J33" t="n" s="42">
-        <v>4334354.0</v>
+        <v>4338302.0</v>
       </c>
     </row>
     <row r="34">
@@ -6593,31 +6593,31 @@
         <v>50</v>
       </c>
       <c r="B34" t="n" s="38">
-        <v>8.0968074E7</v>
+        <v>8.1023321E7</v>
       </c>
       <c r="C34" t="n" s="39">
-        <v>3.4417517775868887</v>
+        <v>3.4415000561896787</v>
       </c>
       <c r="D34" t="n" s="38">
-        <v>1.679581E7</v>
+        <v>1.6803248E7</v>
       </c>
       <c r="E34" t="n" s="39">
-        <v>0.7139481781857827</v>
+        <v>0.7137251129976406</v>
       </c>
       <c r="F34" t="n" s="38">
-        <v>4.3860448E7</v>
+        <v>4.389575E7</v>
       </c>
       <c r="G34" t="n" s="39">
-        <v>1.8643987365903911</v>
+        <v>1.8644906704267046</v>
       </c>
       <c r="H34" t="n" s="38">
-        <v>5594705.0</v>
+        <v>5598784.0</v>
       </c>
       <c r="I34" t="n" s="38">
-        <v>363421.0</v>
+        <v>363583.0</v>
       </c>
       <c r="J34" t="n" s="38">
-        <v>2186260.0</v>
+        <v>2187966.0</v>
       </c>
     </row>
     <row r="35">
@@ -6625,31 +6625,31 @@
         <v>51</v>
       </c>
       <c r="B35" t="n" s="40">
-        <v>6.2451933E7</v>
+        <v>6.2496773E7</v>
       </c>
       <c r="C35" t="n" s="41">
-        <v>2.654676600267005</v>
+        <v>2.6545770419750334</v>
       </c>
       <c r="D35" t="n" s="40">
-        <v>1.0372371E7</v>
+        <v>1.0377732E7</v>
       </c>
       <c r="E35" t="n" s="41">
-        <v>0.44090373604589744</v>
+        <v>0.4407985851520629</v>
       </c>
       <c r="F35" t="n" s="40">
-        <v>3.4106033E7</v>
+        <v>3.4132004E7</v>
       </c>
       <c r="G35" t="n" s="41">
-        <v>1.4497627756859708</v>
+        <v>1.44977140203703</v>
       </c>
       <c r="H35" t="n" s="42">
-        <v>5547413.0</v>
+        <v>5551544.0</v>
       </c>
       <c r="I35" t="n" s="42">
-        <v>816431.0</v>
+        <v>816781.0</v>
       </c>
       <c r="J35" t="n" s="42">
-        <v>2283191.0</v>
+        <v>2284845.0</v>
       </c>
     </row>
     <row r="36">
@@ -6657,31 +6657,31 @@
         <v>52</v>
       </c>
       <c r="B36" t="n" s="38">
-        <v>6.2099226E7</v>
+        <v>6.2143364E7</v>
       </c>
       <c r="C36" t="n" s="39">
-        <v>2.6396839014877633</v>
+        <v>2.639565844231634</v>
       </c>
       <c r="D36" t="n" s="38">
-        <v>1.5127013E7</v>
+        <v>1.5135529E7</v>
       </c>
       <c r="E36" t="n" s="39">
-        <v>0.6430117614299431</v>
+        <v>0.642888038419957</v>
       </c>
       <c r="F36" t="n" s="38">
-        <v>1.5403923E7</v>
+        <v>1.5415324E7</v>
       </c>
       <c r="G36" t="n" s="39">
-        <v>0.6547825179472783</v>
+        <v>0.6547724501712551</v>
       </c>
       <c r="H36" t="n" s="38">
-        <v>6234658.0</v>
+        <v>6239443.0</v>
       </c>
       <c r="I36" t="n" s="38">
-        <v>1300800.0</v>
+        <v>1301415.0</v>
       </c>
       <c r="J36" t="n" s="38">
-        <v>909887.0</v>
+        <v>910516.0</v>
       </c>
     </row>
     <row r="37">
@@ -6689,31 +6689,31 @@
         <v>53</v>
       </c>
       <c r="B37" t="n" s="40">
-        <v>6.5527626E7</v>
+        <v>6.5572968E7</v>
       </c>
       <c r="C37" t="n" s="41">
-        <v>2.7854166725831817</v>
+        <v>2.7852397343293793</v>
       </c>
       <c r="D37" t="n" s="40">
-        <v>9259363.0</v>
+        <v>9263831.0</v>
       </c>
       <c r="E37" t="n" s="41">
-        <v>0.3935925296255937</v>
+        <v>0.39348516591947263</v>
       </c>
       <c r="F37" t="n" s="40">
-        <v>5.5724882E7</v>
+        <v>5.5773973E7</v>
       </c>
       <c r="G37" t="n" s="41">
-        <v>2.36872636589231</v>
+        <v>2.3690232496569923</v>
       </c>
       <c r="H37" t="n" s="42">
-        <v>4313415.0</v>
+        <v>4316214.0</v>
       </c>
       <c r="I37" t="n" s="42">
-        <v>206855.0</v>
+        <v>206939.0</v>
       </c>
       <c r="J37" t="n" s="42">
-        <v>3568383.0</v>
+        <v>3571472.0</v>
       </c>
     </row>
     <row r="38">
@@ -6721,31 +6721,31 @@
         <v>54</v>
       </c>
       <c r="B38" t="n" s="38">
-        <v>3.9184966E7</v>
+        <v>3.9202988E7</v>
       </c>
       <c r="C38" t="n" s="39">
-        <v>1.665655606247739</v>
+        <v>1.665163606473293</v>
       </c>
       <c r="D38" t="n" s="38">
-        <v>4.4080316E7</v>
+        <v>4.4123832E7</v>
       </c>
       <c r="E38" t="n" s="39">
-        <v>1.8737447793261301</v>
+        <v>1.8741785504855317</v>
       </c>
       <c r="F38" t="n" s="38">
-        <v>4.7493253E7</v>
+        <v>4.7548048E7</v>
       </c>
       <c r="G38" t="n" s="39">
-        <v>2.0188202566870226</v>
+        <v>2.0196235829892673</v>
       </c>
       <c r="H38" t="n" s="38">
-        <v>2903124.0</v>
+        <v>2904195.0</v>
       </c>
       <c r="I38" t="n" s="38">
-        <v>2605414.0</v>
+        <v>2607297.0</v>
       </c>
       <c r="J38" t="n" s="38">
-        <v>2988552.0</v>
+        <v>2991632.0</v>
       </c>
     </row>
     <row r="39">
@@ -6753,31 +6753,31 @@
         <v>55</v>
       </c>
       <c r="B39" t="n" s="40">
-        <v>8.4267085E7</v>
+        <v>8.4333617E7</v>
       </c>
       <c r="C39" t="n" s="41">
-        <v>3.5819845435722657</v>
+        <v>3.582106288190518</v>
       </c>
       <c r="D39" t="n" s="40">
-        <v>3.8368129E7</v>
+        <v>3.8406016E7</v>
       </c>
       <c r="E39" t="n" s="41">
-        <v>1.6309338936286548</v>
+        <v>1.631311881452276</v>
       </c>
       <c r="F39" t="n" s="40">
-        <v>3.8642631E7</v>
+        <v>3.8679515E7</v>
       </c>
       <c r="G39" t="n" s="41">
-        <v>1.642602292045186</v>
+        <v>1.6429288679229714</v>
       </c>
       <c r="H39" t="n" s="42">
-        <v>5710888.0</v>
+        <v>5715025.0</v>
       </c>
       <c r="I39" t="n" s="42">
-        <v>1317911.0</v>
+        <v>1318912.0</v>
       </c>
       <c r="J39" t="n" s="42">
-        <v>1763673.0</v>
+        <v>1764700.0</v>
       </c>
     </row>
     <row r="40">
@@ -6785,31 +6785,31 @@
         <v>56</v>
       </c>
       <c r="B40" t="n" s="38">
-        <v>7.2169716E7</v>
+        <v>7.2240211E7</v>
       </c>
       <c r="C40" t="n" s="39">
-        <v>3.067755425810683</v>
+        <v>3.068433719418317</v>
       </c>
       <c r="D40" t="n" s="38">
-        <v>6.8207129E7</v>
+        <v>6.8276682E7</v>
       </c>
       <c r="E40" t="n" s="39">
-        <v>2.8993156917607825</v>
+        <v>2.9000811376201776</v>
       </c>
       <c r="F40" t="n" s="38">
-        <v>4.3358254E7</v>
+        <v>4.3399213E7</v>
       </c>
       <c r="G40" t="n" s="39">
-        <v>1.843051716625541</v>
+        <v>1.8434000499447296</v>
       </c>
       <c r="H40" t="n" s="38">
-        <v>4004788.0</v>
+        <v>4007619.0</v>
       </c>
       <c r="I40" t="n" s="38">
-        <v>3526967.0</v>
+        <v>3529596.0</v>
       </c>
       <c r="J40" t="n" s="38">
-        <v>1417849.0</v>
+        <v>1418589.0</v>
       </c>
     </row>
     <row r="41">
@@ -6817,31 +6817,31 @@
         <v>57</v>
       </c>
       <c r="B41" t="n" s="40">
-        <v>3.7298077E7</v>
+        <v>3.7317828E7</v>
       </c>
       <c r="C41" t="n" s="41">
-        <v>1.5854486401062553</v>
+        <v>1.5850906328423242</v>
       </c>
       <c r="D41" t="n" s="40">
-        <v>2.8321032E7</v>
+        <v>2.834883E7</v>
       </c>
       <c r="E41" t="n" s="41">
-        <v>1.2038567476496373</v>
+        <v>1.2041286241267704</v>
       </c>
       <c r="F41" t="n" s="40">
-        <v>7.0984163E7</v>
+        <v>7.1069059E7</v>
       </c>
       <c r="G41" t="n" s="41">
-        <v>3.0173605115735795</v>
+        <v>3.0186885395853817</v>
       </c>
       <c r="H41" t="n" s="42">
-        <v>2863814.0</v>
+        <v>2865034.0</v>
       </c>
       <c r="I41" t="n" s="42">
-        <v>791863.0</v>
+        <v>792228.0</v>
       </c>
       <c r="J41" t="n" s="42">
-        <v>4562458.0</v>
+        <v>4566632.0</v>
       </c>
     </row>
     <row r="42">
@@ -6849,31 +6849,31 @@
         <v>58</v>
       </c>
       <c r="B42" t="n" s="38">
-        <v>2.8749417E7</v>
+        <v>2.8764818E7</v>
       </c>
       <c r="C42" t="n" s="39">
-        <v>1.2220663302962687</v>
+        <v>1.221797891538979</v>
       </c>
       <c r="D42" t="n" s="38">
-        <v>1.9560652E7</v>
+        <v>1.9572163E7</v>
       </c>
       <c r="E42" t="n" s="39">
-        <v>0.8314747463519823</v>
+        <v>0.8313359565235984</v>
       </c>
       <c r="F42" t="n" s="38">
-        <v>6.1930032E7</v>
+        <v>6.1983092E7</v>
       </c>
       <c r="G42" t="n" s="39">
-        <v>2.632491884665713</v>
+        <v>2.632758222793781</v>
       </c>
       <c r="H42" t="n" s="38">
-        <v>2064964.0</v>
+        <v>2065971.0</v>
       </c>
       <c r="I42" t="n" s="38">
-        <v>794702.0</v>
+        <v>795054.0</v>
       </c>
       <c r="J42" t="n" s="38">
-        <v>5461773.0</v>
+        <v>5466222.0</v>
       </c>
     </row>
     <row r="43">
@@ -6881,31 +6881,31 @@
         <v>59</v>
       </c>
       <c r="B43" t="n" s="40">
-        <v>7.9313234E7</v>
+        <v>7.9390274E7</v>
       </c>
       <c r="C43" t="n" s="41">
-        <v>3.3714086382450557</v>
+        <v>3.372135689574043</v>
       </c>
       <c r="D43" t="n" s="40">
-        <v>2.9891933E7</v>
+        <v>2.9918534E7</v>
       </c>
       <c r="E43" t="n" s="41">
-        <v>1.2706318485265955</v>
+        <v>1.2708024698483147</v>
       </c>
       <c r="F43" t="n" s="40">
-        <v>7.1004415E7</v>
+        <v>7.1069218E7</v>
       </c>
       <c r="G43" t="n" s="41">
-        <v>3.0182213738067567</v>
+        <v>3.018695293178078</v>
       </c>
       <c r="H43" t="n" s="42">
-        <v>4192860.0</v>
+        <v>4196195.0</v>
       </c>
       <c r="I43" t="n" s="42">
-        <v>818284.0</v>
+        <v>818700.0</v>
       </c>
       <c r="J43" t="n" s="42">
-        <v>3623113.0</v>
+        <v>3625451.0</v>
       </c>
     </row>
     <row r="44">
@@ -6913,31 +6913,31 @@
         <v>60</v>
       </c>
       <c r="B44" t="n" s="38">
-        <v>2.8755022E7</v>
+        <v>2.8775193E7</v>
       </c>
       <c r="C44" t="n" s="39">
-        <v>1.2223045849287473</v>
+        <v>1.222238574081268</v>
       </c>
       <c r="D44" t="n" s="38">
-        <v>2.9132342E7</v>
+        <v>2.9150781E7</v>
       </c>
       <c r="E44" t="n" s="39">
-        <v>1.2383435212225644</v>
+        <v>1.2381918342926603</v>
       </c>
       <c r="F44" t="n" s="38">
-        <v>3.9973374E7</v>
+        <v>4.0003329E7</v>
       </c>
       <c r="G44" t="n" s="39">
-        <v>1.699168872667584</v>
+        <v>1.699158431203705</v>
       </c>
       <c r="H44" t="n" s="38">
-        <v>2520149.0</v>
+        <v>2521774.0</v>
       </c>
       <c r="I44" t="n" s="38">
-        <v>2571380.0</v>
+        <v>2572812.0</v>
       </c>
       <c r="J44" t="n" s="38">
-        <v>4529204.0</v>
+        <v>4532888.0</v>
       </c>
     </row>
     <row r="45">
@@ -6945,31 +6945,31 @@
         <v>61</v>
       </c>
       <c r="B45" t="n" s="40">
-        <v>4.0995684E7</v>
+        <v>4.1015672E7</v>
       </c>
       <c r="C45" t="n" s="41">
-        <v>1.742624732315979</v>
+        <v>1.7421581311466785</v>
       </c>
       <c r="D45" t="n" s="40">
-        <v>1.2728552E7</v>
+        <v>1.2735628E7</v>
       </c>
       <c r="E45" t="n" s="41">
-        <v>0.5410591398296958</v>
+        <v>0.5409512216564272</v>
       </c>
       <c r="F45" t="n" s="40">
-        <v>5.5098521E7</v>
+        <v>5.5148658E7</v>
       </c>
       <c r="G45" t="n" s="41">
-        <v>2.342101315070907</v>
+        <v>2.3424627287961375</v>
       </c>
       <c r="H45" t="n" s="42">
-        <v>3193078.0</v>
+        <v>3194372.0</v>
       </c>
       <c r="I45" t="n" s="42">
-        <v>548695.0</v>
+        <v>549031.0</v>
       </c>
       <c r="J45" t="n" s="42">
-        <v>4631908.0</v>
+        <v>4636274.0</v>
       </c>
     </row>
     <row r="46">
@@ -6977,31 +6977,31 @@
         <v>62</v>
       </c>
       <c r="B46" t="n" s="38">
-        <v>2.5039918E7</v>
+        <v>2.5054926E7</v>
       </c>
       <c r="C46" t="n" s="39">
-        <v>1.064384738695031</v>
+        <v>1.0642186493050347</v>
       </c>
       <c r="D46" t="n" s="38">
-        <v>2.2095668E7</v>
+        <v>2.211037E7</v>
       </c>
       <c r="E46" t="n" s="39">
-        <v>0.9392319819287012</v>
+        <v>0.9391473795226759</v>
       </c>
       <c r="F46" t="n" s="38">
-        <v>1.383651E7</v>
+        <v>1.3848301E7</v>
       </c>
       <c r="G46" t="n" s="39">
-        <v>0.5881556832894254</v>
+        <v>0.5882124810661807</v>
       </c>
       <c r="H46" t="n" s="38">
-        <v>3738999.0</v>
+        <v>3741505.0</v>
       </c>
       <c r="I46" t="n" s="38">
-        <v>3115387.0</v>
+        <v>3117804.0</v>
       </c>
       <c r="J46" t="n" s="38">
-        <v>2759421.0</v>
+        <v>2761578.0</v>
       </c>
     </row>
     <row r="47">
@@ -7009,31 +7009,31 @@
         <v>63</v>
       </c>
       <c r="B47" t="n" s="40">
-        <v>4.8526933E7</v>
+        <v>4.8556777E7</v>
       </c>
       <c r="C47" t="n" s="41">
-        <v>2.062759426803086</v>
+        <v>2.062469776743534</v>
       </c>
       <c r="D47" t="n" s="40">
-        <v>1.8498699E7</v>
+        <v>1.8513542E7</v>
       </c>
       <c r="E47" t="n" s="41">
-        <v>0.786333761209323</v>
+        <v>0.7863705788271746</v>
       </c>
       <c r="F47" t="n" s="40">
-        <v>2.0238006E7</v>
+        <v>2.025341E7</v>
       </c>
       <c r="G47" t="n" s="41">
-        <v>0.860267382984979</v>
+        <v>0.8602722128982174</v>
       </c>
       <c r="H47" t="n" s="42">
-        <v>5310295.0</v>
+        <v>5314271.0</v>
       </c>
       <c r="I47" t="n" s="42">
-        <v>2075850.0</v>
+        <v>2077135.0</v>
       </c>
       <c r="J47" t="n" s="42">
-        <v>1548456.0</v>
+        <v>1549614.0</v>
       </c>
     </row>
     <row r="48">
@@ -7041,31 +7041,31 @@
         <v>64</v>
       </c>
       <c r="B48" t="n" s="38">
-        <v>6.0817429E7</v>
+        <v>6.0873358E7</v>
       </c>
       <c r="C48" t="n" s="39">
-        <v>2.585197893789772</v>
+        <v>2.5856217986603443</v>
       </c>
       <c r="D48" t="n" s="38">
-        <v>3.3826285E7</v>
+        <v>3.3842E7</v>
       </c>
       <c r="E48" t="n" s="39">
-        <v>1.4378713828355447</v>
+        <v>1.4374533586641198</v>
       </c>
       <c r="F48" t="n" s="38">
-        <v>1.2012821E7</v>
+        <v>1.2023899E7</v>
       </c>
       <c r="G48" t="n" s="39">
-        <v>0.5106351922188875</v>
+        <v>0.510720229353707</v>
       </c>
       <c r="H48" t="n" s="38">
-        <v>5113973.0</v>
+        <v>5118453.0</v>
       </c>
       <c r="I48" t="n" s="38">
-        <v>2768975.0</v>
+        <v>2770150.0</v>
       </c>
       <c r="J48" t="n" s="38">
-        <v>478355.0</v>
+        <v>478653.0</v>
       </c>
     </row>
     <row r="49">
@@ -7073,31 +7073,31 @@
         <v>65</v>
       </c>
       <c r="B49" t="n" s="40">
-        <v>3.5424658E7</v>
+        <v>3.5443906E7</v>
       </c>
       <c r="C49" t="n" s="41">
-        <v>1.5058142502180254</v>
+        <v>1.5054949980460772</v>
       </c>
       <c r="D49" t="n" s="40">
-        <v>2.0102123E7</v>
+        <v>2.0115815E7</v>
       </c>
       <c r="E49" t="n" s="41">
-        <v>0.8544913340598947</v>
+        <v>0.8544278066903872</v>
       </c>
       <c r="F49" t="n" s="40">
-        <v>3.920961E7</v>
+        <v>3.9242019E7</v>
       </c>
       <c r="G49" t="n" s="41">
-        <v>1.66670316149534</v>
+        <v>1.6668214648162403</v>
       </c>
       <c r="H49" t="n" s="42">
-        <v>3304984.0</v>
+        <v>3306596.0</v>
       </c>
       <c r="I49" t="n" s="42">
-        <v>1105987.0</v>
+        <v>1106758.0</v>
       </c>
       <c r="J49" t="n" s="42">
-        <v>4225865.0</v>
+        <v>4229721.0</v>
       </c>
     </row>
     <row r="50">
@@ -7108,28 +7108,28 @@
         <v>21344.0</v>
       </c>
       <c r="C50" t="n" s="39">
-        <v>9.072804416814281E-4</v>
+        <v>9.065954874808514E-4</v>
       </c>
       <c r="D50" t="n" s="38">
-        <v>3.0121024E7</v>
+        <v>3.0133411E7</v>
       </c>
       <c r="E50" t="n" s="39">
-        <v>1.2803699380911213</v>
+        <v>1.2799294619099444</v>
       </c>
       <c r="F50" t="n" s="38">
-        <v>4.5234085E7</v>
+        <v>4.5263455E7</v>
       </c>
       <c r="G50" t="n" s="39">
-        <v>1.922788634644643</v>
+        <v>1.9225845226195926</v>
       </c>
       <c r="H50" t="n" s="38">
-        <v>1743385.0</v>
+        <v>1743590.0</v>
       </c>
       <c r="I50" t="n" s="38">
-        <v>3711485.0</v>
+        <v>3712779.0</v>
       </c>
       <c r="J50" t="n" s="38">
-        <v>5975366.0</v>
+        <v>5980172.0</v>
       </c>
     </row>
     <row r="51">
@@ -7137,31 +7137,31 @@
         <v>67</v>
       </c>
       <c r="B51" t="n" s="40">
-        <v>3.1312906E7</v>
+        <v>3.1338182E7</v>
       </c>
       <c r="C51" t="n" s="41">
-        <v>1.3310338824029722</v>
+        <v>1.3311026230815988</v>
       </c>
       <c r="D51" t="n" s="40">
-        <v>1.7320382E7</v>
+        <v>1.7331391E7</v>
       </c>
       <c r="E51" t="n" s="41">
-        <v>0.7362464313648358</v>
+        <v>0.7361582117862744</v>
       </c>
       <c r="F51" t="n" s="40">
-        <v>2.4916601E7</v>
+        <v>2.493518E7</v>
       </c>
       <c r="G51" t="n" s="41">
-        <v>1.0591428392278819</v>
+        <v>1.0591323869716442</v>
       </c>
       <c r="H51" t="n" s="42">
-        <v>4179951.0</v>
+        <v>4183423.0</v>
       </c>
       <c r="I51" t="n" s="42">
-        <v>1828593.0</v>
+        <v>1829645.0</v>
       </c>
       <c r="J51" t="n" s="42">
-        <v>2973671.0</v>
+        <v>2975735.0</v>
       </c>
     </row>
     <row r="52">
@@ -7169,31 +7169,31 @@
         <v>68</v>
       </c>
       <c r="B52" t="n" s="38">
-        <v>14509.0</v>
+        <v>14513.0</v>
       </c>
       <c r="C52" t="n" s="39">
-        <v>6.1674156336E-4</v>
+        <v>6.164458540952772E-4</v>
       </c>
       <c r="D52" t="n" s="38">
-        <v>3.0607527E7</v>
+        <v>3.0624022E7</v>
       </c>
       <c r="E52" t="n" s="39">
-        <v>1.3010499726075824</v>
+        <v>1.3007683730188493</v>
       </c>
       <c r="F52" t="n" s="38">
-        <v>1.2858181E7</v>
+        <v>1.2864725E7</v>
       </c>
       <c r="G52" t="n" s="39">
-        <v>0.5465693467438036</v>
+        <v>0.5464346716961251</v>
       </c>
       <c r="H52" t="n" s="38">
-        <v>1919041.0</v>
+        <v>1920551.0</v>
       </c>
       <c r="I52" t="n" s="38">
-        <v>6572934.0</v>
+        <v>6577631.0</v>
       </c>
       <c r="J52" t="n" s="38">
-        <v>3251215.0</v>
+        <v>3253899.0</v>
       </c>
     </row>
     <row r="53">
@@ -7201,31 +7201,31 @@
         <v>69</v>
       </c>
       <c r="B53" t="n" s="40">
-        <v>3.7671482E7</v>
+        <v>3.7698866E7</v>
       </c>
       <c r="C53" t="n" s="41">
-        <v>1.6013211594712318</v>
+        <v>1.6012753841241238</v>
       </c>
       <c r="D53" t="n" s="40">
-        <v>1.8869262E7</v>
+        <v>1.8879015E7</v>
       </c>
       <c r="E53" t="n" s="41">
-        <v>0.8020854742111406</v>
+        <v>0.8018942001069765</v>
       </c>
       <c r="F53" t="n" s="40">
-        <v>4.459498E7</v>
+        <v>4.463018E7</v>
       </c>
       <c r="G53" t="n" s="41">
-        <v>1.8956218680272887</v>
+        <v>1.8956858973696658</v>
       </c>
       <c r="H53" t="n" s="42">
-        <v>3978855.0</v>
+        <v>3981055.0</v>
       </c>
       <c r="I53" t="n" s="42">
-        <v>1339667.0</v>
+        <v>1340030.0</v>
       </c>
       <c r="J53" t="n" s="42">
-        <v>4352581.0</v>
+        <v>4356286.0</v>
       </c>
     </row>
     <row r="54">
@@ -7233,31 +7233,31 @@
         <v>70</v>
       </c>
       <c r="B54" t="n" s="38">
-        <v>1.8004043E7</v>
+        <v>1.8013191E7</v>
       </c>
       <c r="C54" t="n" s="39">
-        <v>0.7653071629072069</v>
+        <v>0.7651179570713402</v>
       </c>
       <c r="D54" t="n" s="38">
-        <v>5.2940277E7</v>
+        <v>5.2976562E7</v>
       </c>
       <c r="E54" t="n" s="39">
-        <v>2.2503597216687194</v>
+        <v>2.2502020263984983</v>
       </c>
       <c r="F54" t="n" s="38">
-        <v>3.1528199E7</v>
+        <v>3.1552206E7</v>
       </c>
       <c r="G54" t="n" s="39">
-        <v>1.3401854532486863</v>
+        <v>1.3401933836050528</v>
       </c>
       <c r="H54" t="n" s="38">
-        <v>1032996.0</v>
+        <v>1033395.0</v>
       </c>
       <c r="I54" t="n" s="38">
-        <v>4893928.0</v>
+        <v>4897786.0</v>
       </c>
       <c r="J54" t="n" s="38">
-        <v>2443451.0</v>
+        <v>2445381.0</v>
       </c>
     </row>
     <row r="55">
@@ -7265,31 +7265,31 @@
         <v>71</v>
       </c>
       <c r="B55" t="n" s="40">
-        <v>2.3474987E7</v>
+        <v>2.3494572E7</v>
       </c>
       <c r="C55" t="n" s="41">
-        <v>0.9978634076942364</v>
+        <v>0.9979419488143724</v>
       </c>
       <c r="D55" t="n" s="40">
-        <v>3.3982493E7</v>
+        <v>3.4006685E7</v>
       </c>
       <c r="E55" t="n" s="41">
-        <v>1.444511397042543</v>
+        <v>1.4444484241558637</v>
       </c>
       <c r="F55" t="n" s="40">
-        <v>2.5405574E7</v>
+        <v>2.5422974E7</v>
       </c>
       <c r="G55" t="n" s="41">
-        <v>1.0799278673111978</v>
+        <v>1.0798516448061755</v>
       </c>
       <c r="H55" t="n" s="42">
-        <v>2055943.0</v>
+        <v>2057922.0</v>
       </c>
       <c r="I55" t="n" s="42">
-        <v>3834374.0</v>
+        <v>3837305.0</v>
       </c>
       <c r="J55" t="n" s="42">
-        <v>3189930.0</v>
+        <v>3191638.0</v>
       </c>
     </row>
     <row r="56">
@@ -7297,31 +7297,31 @@
         <v>72</v>
       </c>
       <c r="B56" t="n" s="38">
-        <v>2.6174227E7</v>
+        <v>2.6193189E7</v>
       </c>
       <c r="C56" t="n" s="39">
-        <v>1.1126013977337874</v>
+        <v>1.1125668548600578</v>
       </c>
       <c r="D56" t="n" s="38">
-        <v>8.4101702E7</v>
+        <v>8.4153103E7</v>
       </c>
       <c r="E56" t="n" s="39">
-        <v>3.574954522897294</v>
+        <v>3.5744388791843753</v>
       </c>
       <c r="F56" t="n" s="38">
-        <v>1.8384119E7</v>
+        <v>1.8395248E7</v>
       </c>
       <c r="G56" t="n" s="39">
-        <v>0.7814632499177255</v>
+        <v>0.781345990811992</v>
       </c>
       <c r="H56" t="n" s="38">
-        <v>1048869.0</v>
+        <v>1049533.0</v>
       </c>
       <c r="I56" t="n" s="38">
-        <v>6025076.0</v>
+        <v>6029693.0</v>
       </c>
       <c r="J56" t="n" s="38">
-        <v>1542262.0</v>
+        <v>1543042.0</v>
       </c>
     </row>
     <row r="57">
@@ -7329,31 +7329,31 @@
         <v>73</v>
       </c>
       <c r="B57" t="n" s="40">
-        <v>1.9960047E7</v>
+        <v>1.9976048E7</v>
       </c>
       <c r="C57" t="n" s="41">
-        <v>0.8484520360823681</v>
+        <v>0.8484911438578001</v>
       </c>
       <c r="D57" t="n" s="40">
-        <v>2.9219043E7</v>
+        <v>2.9242291E7</v>
       </c>
       <c r="E57" t="n" s="41">
-        <v>1.242028965449243</v>
+        <v>1.2420787605042127</v>
       </c>
       <c r="F57" t="n" s="40">
-        <v>2.9547788E7</v>
+        <v>2.9576752E7</v>
       </c>
       <c r="G57" t="n" s="41">
-        <v>1.25600309910744</v>
+        <v>1.256285133880259</v>
       </c>
       <c r="H57" t="n" s="42">
-        <v>2142986.0</v>
+        <v>2144037.0</v>
       </c>
       <c r="I57" t="n" s="42">
-        <v>3395282.0</v>
+        <v>3397379.0</v>
       </c>
       <c r="J57" t="n" s="42">
-        <v>3406220.0</v>
+        <v>3409538.0</v>
       </c>
     </row>
     <row r="58">
@@ -7361,31 +7361,31 @@
         <v>74</v>
       </c>
       <c r="B58" t="n" s="38">
-        <v>193842.0</v>
+        <v>193843.0</v>
       </c>
       <c r="C58" t="n" s="39">
-        <v>0.008239742099719423</v>
+        <v>0.008233563956135245</v>
       </c>
       <c r="D58" t="n" s="38">
-        <v>5.720903E7</v>
+        <v>5.7265869E7</v>
       </c>
       <c r="E58" t="n" s="39">
-        <v>2.4318138121517086</v>
+        <v>2.4323921674507862</v>
       </c>
       <c r="F58" t="n" s="38">
-        <v>6.4752887E7</v>
+        <v>6.4792834E7</v>
       </c>
       <c r="G58" t="n" s="39">
-        <v>2.7524844414124625</v>
+        <v>2.752103210527356</v>
       </c>
       <c r="H58" t="n" s="38">
-        <v>43832.0</v>
+        <v>43843.0</v>
       </c>
       <c r="I58" t="n" s="38">
-        <v>4020373.0</v>
+        <v>4024227.0</v>
       </c>
       <c r="J58" t="n" s="38">
-        <v>3887992.0</v>
+        <v>3889951.0</v>
       </c>
     </row>
     <row r="59">
@@ -7393,31 +7393,31 @@
         <v>75</v>
       </c>
       <c r="B59" t="n" s="40">
-        <v>1.3294247E7</v>
+        <v>1.3307691E7</v>
       </c>
       <c r="C59" t="n" s="41">
-        <v>0.5651054296280923</v>
+        <v>0.5652498411445623</v>
       </c>
       <c r="D59" t="n" s="40">
-        <v>6.7787541E7</v>
+        <v>6.7860382E7</v>
       </c>
       <c r="E59" t="n" s="41">
-        <v>2.8814800477407196</v>
+        <v>2.882398617875131</v>
       </c>
       <c r="F59" t="n" s="40">
-        <v>5.0844576E7</v>
+        <v>5.0874322E7</v>
       </c>
       <c r="G59" t="n" s="41">
-        <v>2.1612766758988444</v>
+        <v>2.1609084873429443</v>
       </c>
       <c r="H59" t="n" s="42">
-        <v>405876.0</v>
+        <v>406084.0</v>
       </c>
       <c r="I59" t="n" s="42">
-        <v>4273240.0</v>
+        <v>4277412.0</v>
       </c>
       <c r="J59" t="n" s="42">
-        <v>3480290.0</v>
+        <v>3481722.0</v>
       </c>
     </row>
     <row r="60">
@@ -7425,31 +7425,31 @@
         <v>76</v>
       </c>
       <c r="B60" t="n" s="38">
-        <v>2.9445132E7</v>
+        <v>2.9469413E7</v>
       </c>
       <c r="C60" t="n" s="39">
-        <v>1.2516394474478987</v>
+        <v>1.2517258641543076</v>
       </c>
       <c r="D60" t="n" s="38">
-        <v>8.0433275E7</v>
+        <v>8.0513699E7</v>
       </c>
       <c r="E60" t="n" s="39">
-        <v>3.4190188000320356</v>
+        <v>3.4198536447615973</v>
       </c>
       <c r="F60" t="n" s="38">
-        <v>3.7013376E7</v>
+        <v>3.7030042E7</v>
       </c>
       <c r="G60" t="n" s="39">
-        <v>1.573346707524399</v>
+        <v>1.5728667999637558</v>
       </c>
       <c r="H60" t="n" s="38">
-        <v>918338.0</v>
+        <v>918814.0</v>
       </c>
       <c r="I60" t="n" s="38">
-        <v>5254856.0</v>
+        <v>5259367.0</v>
       </c>
       <c r="J60" t="n" s="38">
-        <v>2010176.0</v>
+        <v>2010992.0</v>
       </c>
     </row>
     <row r="61">
@@ -7457,31 +7457,31 @@
         <v>77</v>
       </c>
       <c r="B61" t="n" s="40">
-        <v>8875531.0</v>
+        <v>8882774.0</v>
       </c>
       <c r="C61" t="n" s="41">
-        <v>0.37727678438142837</v>
+        <v>0.3772996076045836</v>
       </c>
       <c r="D61" t="n" s="40">
-        <v>3.0677532E7</v>
+        <v>3.0707998E7</v>
       </c>
       <c r="E61" t="n" s="41">
-        <v>1.304025711331341</v>
+        <v>1.304335289372705</v>
       </c>
       <c r="F61" t="n" s="40">
-        <v>3.7801847E7</v>
+        <v>3.782073E7</v>
       </c>
       <c r="G61" t="n" s="41">
-        <v>1.6068626519178113</v>
+        <v>1.6064516094092793</v>
       </c>
       <c r="H61" t="n" s="42">
-        <v>649727.0</v>
+        <v>650116.0</v>
       </c>
       <c r="I61" t="n" s="42">
-        <v>3634943.0</v>
+        <v>3638866.0</v>
       </c>
       <c r="J61" t="n" s="42">
-        <v>4344793.0</v>
+        <v>4346576.0</v>
       </c>
     </row>
     <row r="62">
@@ -7489,31 +7489,31 @@
         <v>78</v>
       </c>
       <c r="B62" t="n" s="38">
-        <v>3.7877805E7</v>
+        <v>3.7895259E7</v>
       </c>
       <c r="C62" t="n" s="39">
-        <v>1.6100914378899458</v>
+        <v>1.609617260415954</v>
       </c>
       <c r="D62" t="n" s="38">
-        <v>4.0046857E7</v>
+        <v>4.0074505E7</v>
       </c>
       <c r="E62" t="n" s="39">
-        <v>1.7022924525352787</v>
+        <v>1.702181662107797</v>
       </c>
       <c r="F62" t="n" s="38">
-        <v>2.1377946E7</v>
+        <v>2.1391403E7</v>
       </c>
       <c r="G62" t="n" s="39">
-        <v>0.9087234018516547</v>
+        <v>0.9086089500882846</v>
       </c>
       <c r="H62" t="n" s="38">
-        <v>3459474.0</v>
+        <v>3460859.0</v>
       </c>
       <c r="I62" t="n" s="38">
-        <v>4301781.0</v>
+        <v>4305654.0</v>
       </c>
       <c r="J62" t="n" s="38">
-        <v>2947725.0</v>
+        <v>2948968.0</v>
       </c>
     </row>
     <row r="63">
@@ -7521,31 +7521,31 @@
         <v>79</v>
       </c>
       <c r="B63" t="n" s="40">
-        <v>4.6030818E7</v>
+        <v>4.6065297E7</v>
       </c>
       <c r="C63" t="n" s="41">
-        <v>1.956655776143058</v>
+        <v>1.9566431029640743</v>
       </c>
       <c r="D63" t="n" s="40">
-        <v>3.1073429E7</v>
+        <v>3.1095164E7</v>
       </c>
       <c r="E63" t="n" s="41">
-        <v>1.320854309767452</v>
+        <v>1.3207803300635785</v>
       </c>
       <c r="F63" t="n" s="40">
-        <v>2.6829906E7</v>
+        <v>2.6848327E7</v>
       </c>
       <c r="G63" t="n" s="41">
-        <v>1.1404726839369939</v>
+        <v>1.1403941203434365</v>
       </c>
       <c r="H63" t="n" s="42">
-        <v>4033033.0</v>
+        <v>4036665.0</v>
       </c>
       <c r="I63" t="n" s="42">
-        <v>2617998.0</v>
+        <v>2619640.0</v>
       </c>
       <c r="J63" t="n" s="42">
-        <v>1927905.0</v>
+        <v>1929009.0</v>
       </c>
     </row>
     <row r="64">
@@ -7553,31 +7553,31 @@
         <v>80</v>
       </c>
       <c r="B64" t="n" s="38">
-        <v>3.3661392E7</v>
+        <v>3.3679064E7</v>
       </c>
       <c r="C64" t="n" s="39">
-        <v>1.4308621908438761</v>
+        <v>1.430532582692035</v>
       </c>
       <c r="D64" t="n" s="38">
-        <v>6.2093149E7</v>
+        <v>6.2131069E7</v>
       </c>
       <c r="E64" t="n" s="39">
-        <v>2.6394255833072866</v>
+        <v>2.6390436088718805</v>
       </c>
       <c r="F64" t="n" s="38">
-        <v>1.1492236E7</v>
+        <v>1.1499175E7</v>
       </c>
       <c r="G64" t="n" s="39">
-        <v>0.4885064165098954</v>
+        <v>0.4884323540457562</v>
       </c>
       <c r="H64" t="n" s="38">
-        <v>2609588.0</v>
+        <v>2610716.0</v>
       </c>
       <c r="I64" t="n" s="38">
-        <v>5457840.0</v>
+        <v>5462549.0</v>
       </c>
       <c r="J64" t="n" s="38">
-        <v>743867.0</v>
+        <v>744111.0</v>
       </c>
     </row>
     <row r="65">
@@ -7585,31 +7585,31 @@
         <v>81</v>
       </c>
       <c r="B65" t="n" s="40">
-        <v>4.7042892E7</v>
+        <v>4.7078351E7</v>
       </c>
       <c r="C65" t="n" s="41">
-        <v>1.9996765288480003</v>
+        <v>1.9996730029347654</v>
       </c>
       <c r="D65" t="n" s="40">
-        <v>3.5875729E7</v>
+        <v>3.5897415E7</v>
       </c>
       <c r="E65" t="n" s="41">
-        <v>1.5249881583940788</v>
+        <v>1.5247579859083316</v>
       </c>
       <c r="F65" t="n" s="40">
-        <v>5.1216055E7</v>
+        <v>5.124427E7</v>
       </c>
       <c r="G65" t="n" s="41">
-        <v>2.177067325786184</v>
+        <v>2.1766221861530344</v>
       </c>
       <c r="H65" t="n" s="42">
-        <v>3725982.0</v>
+        <v>3729773.0</v>
       </c>
       <c r="I65" t="n" s="42">
-        <v>2046466.0</v>
+        <v>2047339.0</v>
       </c>
       <c r="J65" t="n" s="42">
-        <v>4336596.0</v>
+        <v>4338449.0</v>
       </c>
     </row>
     <row r="67">
@@ -7617,31 +7617,31 @@
         <v>82</v>
       </c>
       <c r="B67" t="n" s="40">
-        <v>2.352525087E9</v>
+        <v>2.354302475E9</v>
       </c>
       <c r="C67" t="n" s="41">
-        <v>99.99999999999997</v>
+        <v>100.00000000000003</v>
       </c>
       <c r="D67" t="n" s="40">
-        <v>2.352525087E9</v>
+        <v>2.354302475E9</v>
       </c>
       <c r="E67" t="n" s="41">
-        <v>100.0</v>
+        <v>100.00000000000001</v>
       </c>
       <c r="F67" t="n" s="40">
-        <v>2.352525087E9</v>
+        <v>2.354302475E9</v>
       </c>
       <c r="G67" t="n" s="41">
-        <v>99.99999999999999</v>
+        <v>99.99999999999994</v>
       </c>
       <c r="H67" t="n" s="40">
-        <v>1.040849167E9</v>
+        <v>1.041737356E9</v>
       </c>
       <c r="I67" t="n" s="40">
-        <v>1.049800832E9</v>
+        <v>1.050734882E9</v>
       </c>
       <c r="J67" t="n" s="40">
-        <v>1.04942754E9</v>
+        <v>1.050345259E9</v>
       </c>
     </row>
     <row r="68"/>
@@ -7650,16 +7650,16 @@
         <v>83</v>
       </c>
       <c r="B71" t="n" s="47">
-        <v>2.58988588E8</v>
+        <v>2.59150847E8</v>
       </c>
       <c r="C71" t="n" s="48">
-        <v>7.3354605182087305</v>
+        <v>7.33451500894387</v>
       </c>
       <c r="D71" t="n" s="47">
-        <v>2.59849014E8</v>
+        <v>2.60012319E8</v>
       </c>
       <c r="E71" t="n" s="48">
-        <v>7.359830784870211</v>
+        <v>7.358896481691998</v>
       </c>
     </row>
     <row r="72">
@@ -7667,16 +7667,16 @@
         <v>84</v>
       </c>
       <c r="B72" t="n" s="45">
-        <v>1.84791196E8</v>
+        <v>1.84926318E8</v>
       </c>
       <c r="C72" t="n" s="46">
-        <v>5.233931474890204</v>
+        <v>5.233804444867306</v>
       </c>
       <c r="D72" t="n" s="45">
-        <v>1.85178451E8</v>
+        <v>1.85314536E8</v>
       </c>
       <c r="E72" t="n" s="46">
-        <v>5.244899887764746</v>
+        <v>5.24479183225463</v>
       </c>
     </row>
     <row r="73">
@@ -7684,16 +7684,16 @@
         <v>85</v>
       </c>
       <c r="B73" t="n" s="47">
-        <v>1.87269996E8</v>
+        <v>1.87409664E8</v>
       </c>
       <c r="C73" t="n" s="48">
-        <v>5.304139740331366</v>
+        <v>5.304088369154077</v>
       </c>
       <c r="D73" t="n" s="47">
-        <v>1.88200098E8</v>
+        <v>1.88340009E8</v>
       </c>
       <c r="E73" t="n" s="48">
-        <v>5.330483474437932</v>
+        <v>5.330419092919745</v>
       </c>
     </row>
     <row r="74">
@@ -7701,16 +7701,16 @@
         <v>86</v>
       </c>
       <c r="B74" t="n" s="45">
-        <v>2.24751645E8</v>
+        <v>2.24903165E8</v>
       </c>
       <c r="C74" t="n" s="46">
-        <v>6.365750827213919</v>
+        <v>6.365233447419448</v>
       </c>
       <c r="D74" t="n" s="45">
-        <v>2.18760019E8</v>
+        <v>2.18905954E8</v>
       </c>
       <c r="E74" t="n" s="46">
-        <v>6.196047071916126</v>
+        <v>6.195499739810523</v>
       </c>
     </row>
     <row r="75">
@@ -7718,16 +7718,16 @@
         <v>87</v>
       </c>
       <c r="B75" t="n" s="47">
-        <v>2.08909896E8</v>
+        <v>2.09067426E8</v>
       </c>
       <c r="C75" t="n" s="48">
-        <v>5.917057217868967</v>
+        <v>5.91704866732796</v>
       </c>
       <c r="D75" t="n" s="47">
-        <v>2.08690837E8</v>
+        <v>2.08847574E8</v>
       </c>
       <c r="E75" t="n" s="48">
-        <v>5.9108527026118765</v>
+        <v>5.910826392493001</v>
       </c>
     </row>
     <row r="76">
@@ -7735,16 +7735,16 @@
         <v>88</v>
       </c>
       <c r="B76" t="n" s="45">
-        <v>2.17239316E8</v>
+        <v>2.17408646E8</v>
       </c>
       <c r="C76" t="n" s="46">
-        <v>6.152975456666339</v>
+        <v>6.153122768536291</v>
       </c>
       <c r="D76" t="n" s="45">
-        <v>2.17418526E8</v>
+        <v>2.17588689E8</v>
       </c>
       <c r="E76" t="n" s="46">
-        <v>6.158051309195671</v>
+        <v>6.158218364792456</v>
       </c>
     </row>
     <row r="77">
@@ -7752,16 +7752,16 @@
         <v>89</v>
       </c>
       <c r="B77" t="n" s="47">
-        <v>2.89509521E8</v>
+        <v>2.89753426E8</v>
       </c>
       <c r="C77" t="n" s="48">
-        <v>8.199919839483512</v>
+        <v>8.200632475223617</v>
       </c>
       <c r="D77" t="n" s="47">
-        <v>2.89527909E8</v>
+        <v>2.89771119E8</v>
       </c>
       <c r="E77" t="n" s="48">
-        <v>8.200440651805978</v>
+        <v>8.201133224403316</v>
       </c>
     </row>
     <row r="78">
@@ -7769,16 +7769,16 @@
         <v>90</v>
       </c>
       <c r="B78" t="n" s="45">
-        <v>1.89316748E8</v>
+        <v>1.89477476E8</v>
       </c>
       <c r="C78" t="n" s="46">
-        <v>5.3621108988388</v>
+        <v>5.362611805697869</v>
       </c>
       <c r="D78" t="n" s="45">
-        <v>1.89128398E8</v>
+        <v>1.89288917E8</v>
       </c>
       <c r="E78" t="n" s="46">
-        <v>5.356776169616659</v>
+        <v>5.357275188698228</v>
       </c>
     </row>
     <row r="79">
@@ -7786,16 +7786,16 @@
         <v>91</v>
       </c>
       <c r="B79" t="n" s="47">
-        <v>2.37451333E8</v>
+        <v>2.37621104E8</v>
       </c>
       <c r="C79" t="n" s="48">
-        <v>6.725450305237132</v>
+        <v>6.725177918209978</v>
       </c>
       <c r="D79" t="n" s="47">
-        <v>2.34245369E8</v>
+        <v>2.34412713E8</v>
       </c>
       <c r="E79" t="n" s="48">
-        <v>6.63464621797442</v>
+        <v>6.634373692730983</v>
       </c>
     </row>
     <row r="80">
@@ -7803,16 +7803,16 @@
         <v>92</v>
       </c>
       <c r="B80" t="n" s="45">
-        <v>3.06670994E8</v>
+        <v>3.06957043E8</v>
       </c>
       <c r="C80" t="n" s="46">
-        <v>8.685992637508903</v>
+        <v>8.687531084876326</v>
       </c>
       <c r="D80" t="n" s="45">
-        <v>3.05703757E8</v>
+        <v>3.05988796E8</v>
       </c>
       <c r="E80" t="n" s="46">
-        <v>8.65859711062472</v>
+        <v>8.660127654649974</v>
       </c>
     </row>
     <row r="81">
@@ -7820,16 +7820,16 @@
         <v>93</v>
       </c>
       <c r="B81" t="n" s="47">
-        <v>2.49343218E8</v>
+        <v>2.49540669E8</v>
       </c>
       <c r="C81" t="n" s="48">
-        <v>7.062269983579789</v>
+        <v>7.062526722601816</v>
       </c>
       <c r="D81" t="n" s="47">
-        <v>2.4778996E8</v>
+        <v>2.47986691E8</v>
       </c>
       <c r="E81" t="n" s="48">
-        <v>7.018276297133682</v>
+        <v>7.018545870922142</v>
       </c>
     </row>
     <row r="82">
@@ -7837,16 +7837,16 @@
         <v>94</v>
       </c>
       <c r="B82" t="n" s="45">
-        <v>1.75833425E8</v>
+        <v>1.75958292E8</v>
       </c>
       <c r="C82" t="n" s="46">
-        <v>4.980216143226033</v>
+        <v>4.97999041315936</v>
       </c>
       <c r="D82" t="n" s="45">
-        <v>1.73795235E8</v>
+        <v>1.73920031E8</v>
       </c>
       <c r="E82" t="n" s="46">
-        <v>4.922487490434553</v>
+        <v>4.92230333218044</v>
       </c>
     </row>
     <row r="83">
@@ -7854,16 +7854,16 @@
         <v>95</v>
       </c>
       <c r="B83" t="n" s="47">
-        <v>1.46637765E8</v>
+        <v>1.46733441E8</v>
       </c>
       <c r="C83" t="n" s="48">
-        <v>4.153293177674184</v>
+        <v>4.152865552195088</v>
       </c>
       <c r="D83" t="n" s="47">
-        <v>1.49144171E8</v>
+        <v>1.49242298E8</v>
       </c>
       <c r="E83" t="n" s="48">
-        <v>4.224283341362792</v>
+        <v>4.223871491534325</v>
       </c>
     </row>
     <row r="84">
@@ -7871,16 +7871,16 @@
         <v>96</v>
       </c>
       <c r="B84" t="n" s="45">
-        <v>1.96064164E8</v>
+        <v>1.96204292E8</v>
       </c>
       <c r="C84" t="n" s="46">
-        <v>5.553221264164742</v>
+        <v>5.552994872107077</v>
       </c>
       <c r="D84" t="n" s="45">
-        <v>1.96658335E8</v>
+        <v>1.96798529E8</v>
       </c>
       <c r="E84" t="n" s="46">
-        <v>5.570050260165001</v>
+        <v>5.569813031282802</v>
       </c>
     </row>
     <row r="85">
@@ -7888,16 +7888,16 @@
         <v>97</v>
       </c>
       <c r="B85" t="n" s="47">
-        <v>2.35411586E8</v>
+        <v>2.35604472E8</v>
       </c>
       <c r="C85" t="n" s="48">
-        <v>6.667677552772708</v>
+        <v>6.668102983504028</v>
       </c>
       <c r="D85" t="n" s="47">
-        <v>2.44379174E8</v>
+        <v>2.44577921E8</v>
       </c>
       <c r="E85" t="n" s="48">
-        <v>6.921670936131988</v>
+        <v>6.922070497538401</v>
       </c>
     </row>
     <row r="86">
@@ -7905,16 +7905,16 @@
         <v>98</v>
       </c>
       <c r="B86" t="n" s="45">
-        <v>2.22449038E8</v>
+        <v>2.22589557E8</v>
       </c>
       <c r="C86" t="n" s="46">
-        <v>6.300532962334671</v>
+        <v>6.299753466175888</v>
       </c>
       <c r="D86" t="n" s="45">
-        <v>2.22169176E8</v>
+        <v>2.22309742E8</v>
       </c>
       <c r="E86" t="n" s="46">
-        <v>6.292606293953643</v>
+        <v>6.2918341120970345</v>
       </c>
     </row>
     <row r="88">
@@ -7922,16 +7922,16 @@
         <v>82</v>
       </c>
       <c r="B88" t="n" s="47">
-        <v>3.530638429E9</v>
+        <v>3.533305838E9</v>
       </c>
       <c r="C88" t="n" s="48">
-        <v>100.00000000000001</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="D88" t="n" s="47">
-        <v>3.530638429E9</v>
+        <v>3.533305838E9</v>
       </c>
       <c r="E88" t="n" s="48">
-        <v>100.0</v>
+        <v>99.99999999999999</v>
       </c>
     </row>
   </sheetData>
